--- a/MISTDO.Web/wwwroot/ExportCalendar.xlsx
+++ b/MISTDO.Web/wwwroot/ExportCalendar.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Training Name</t>
   </si>
@@ -53,19 +53,76 @@
     <t>ijebu</t>
   </si>
   <si>
-    <t>04:05:00</t>
-  </si>
-  <si>
-    <t>15:02:00</t>
-  </si>
-  <si>
-    <t>4/27/2019 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>10/23/2019 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>ilorin</t>
+    <t>01:00:00</t>
+  </si>
+  <si>
+    <t>01:01:00</t>
+  </si>
+  <si>
+    <t>3/2/2019 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>5352800f-9ddd-4a9e-b3e9-b7e35af25559</t>
+  </si>
+  <si>
+    <t>23:59:00</t>
+  </si>
+  <si>
+    <t>2/26/2019 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>Akwa Ibom</t>
+  </si>
+  <si>
+    <t>Graphics design</t>
+  </si>
+  <si>
+    <t>12:58:00</t>
+  </si>
+  <si>
+    <t>7/26/2019 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>2/5/2019 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>Abuja FCT</t>
+  </si>
+  <si>
+    <t>laracast dev</t>
+  </si>
+  <si>
+    <t>3f0fe022-dc49-46b9-a907-fb76e8005b60</t>
+  </si>
+  <si>
+    <t>10:30:00</t>
+  </si>
+  <si>
+    <t>17:30:00</t>
+  </si>
+  <si>
+    <t>4/5/2019 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>9/5/2019 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>Abuja</t>
+  </si>
+  <si>
+    <t>05:00:00</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>12/8/2018 12:00:00 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UX training </t>
+  </si>
+  <si>
+    <t>Kubwa</t>
   </si>
 </sst>
 </file>
@@ -117,7 +174,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -185,7 +242,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="0">
-        <v>45800</v>
+        <v>6500</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>13</v>
@@ -194,13 +251,137 @@
         <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="C4" s="0">
+        <v>7000</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0">
+        <v>25800</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="0">
+        <v>4000</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="0">
+        <v>23000</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
